--- a/Package2.xlsx
+++ b/Package2.xlsx
@@ -226,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
-  <x:autoFilter ref="A1:J11"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
+  <x:autoFilter ref="A1:J21"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -532,7 +532,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J11"/>
+  <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -798,6 +798,222 @@
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
